--- a/biology/Médecine/Mohamed_Mashally/Mohamed_Mashally.xlsx
+++ b/biology/Médecine/Mohamed_Mashally/Mohamed_Mashally.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mohamed Mashally (1944 — 28 juillet 2020), surnommé le médecin des pauvres, est un médecin égyptien connu pour soigner les patients pauvres presque gratuitement. La carrière de Mashally en tant que médecin a duré plus de 50 ans[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mohamed Mashally (1944 — 28 juillet 2020), surnommé le médecin des pauvres, est un médecin égyptien connu pour soigner les patients pauvres presque gratuitement. La carrière de Mashally en tant que médecin a duré plus de 50 ans,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mashally nait en 1944 dans le village de Dhahr El Temsah dans le gouvernorat de Beheira au nord de l'Égypte. Son père était enseignant. La famille déménage ensuite à Tanta dans et Mashally étudie à faculté de médecine Qasr Al-Eini se spécialisant en médecine interne, en pédiatrie et en maladies infectieuses[3].
-En 1975, Mashally ouvre une clinique à Gharbia où il ne facturait aux patients que 5 livres égyptiennes pour les examens médicaux. La clinique, qui est restée ouverte pendant de nombreuses années, n'a augmenté ses tarifs qu'à 10 £, Mashally offrant fréquemment des examens gratuits aux patients pauvres[3].
-Mohamed Mashally meurt le 28 juillet 2020 à Tanta et est enterré dans son gouvernorat natal de Beheira[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mashally nait en 1944 dans le village de Dhahr El Temsah dans le gouvernorat de Beheira au nord de l'Égypte. Son père était enseignant. La famille déménage ensuite à Tanta dans et Mashally étudie à faculté de médecine Qasr Al-Eini se spécialisant en médecine interne, en pédiatrie et en maladies infectieuses.
+En 1975, Mashally ouvre une clinique à Gharbia où il ne facturait aux patients que 5 livres égyptiennes pour les examens médicaux. La clinique, qui est restée ouverte pendant de nombreuses années, n'a augmenté ses tarifs qu'à 10 £, Mashally offrant fréquemment des examens gratuits aux patients pauvres.
+Mohamed Mashally meurt le 28 juillet 2020 à Tanta et est enterré dans son gouvernorat natal de Beheira.
 </t>
         </is>
       </c>
